--- a/Phân tích/UseCases/4. Báo cáo.xlsx
+++ b/Phân tích/UseCases/4. Báo cáo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46B4667-13A4-488D-AFE7-1A0D2B72D1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A96BE0-24D4-4E77-B7C7-CB1A81893556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC4A1FAB-29E9-4CDF-AA87-E1C49E30A895}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4A1FAB-29E9-4CDF-AA87-E1C49E30A895}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -336,11 +336,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -360,33 +409,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -395,6 +444,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,6 +487,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFD2F2E-C9F1-402C-AB04-40C29A3E6B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619124" y="12220575"/>
+          <a:ext cx="7381876" cy="8886825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,66 +835,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CC78D9-3A50-4CE9-A19E-A78CD40F6C27}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -779,69 +904,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -850,35 +975,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -887,35 +1012,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -924,103 +1049,356 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="7">
         <v>44158</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="A38:C86"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -1032,15 +1410,9 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A15:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Phân tích/UseCases/4. Báo cáo.xlsx
+++ b/Phân tích/UseCases/4. Báo cáo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A96BE0-24D4-4E77-B7C7-CB1A81893556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9312AFF-1F39-4C67-97EB-A2339C65A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4A1FAB-29E9-4CDF-AA87-E1C49E30A895}"/>
   </bookViews>
@@ -409,24 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -471,6 +453,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,6 +527,50 @@
         <a:xfrm>
           <a:off x="619124" y="12220575"/>
           <a:ext cx="7381876" cy="8886825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>126124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FC440C-8804-4A1C-B977-7A2B6CA044BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658225" y="171450"/>
+          <a:ext cx="9765424" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CC78D9-3A50-4CE9-A19E-A78CD40F6C27}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,53 +892,138 @@
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="22"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="22"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="22"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -903,71 +1032,173 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,35 +1207,35 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,35 +1244,35 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1050,14 +1281,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>34</v>
@@ -1067,330 +1298,334 @@
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="23">
         <v>44158</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D1:T11"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="A15:A28"/>
     <mergeCell ref="A38:C86"/>
@@ -1407,9 +1642,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân tích/UseCases/4. Báo cáo.xlsx
+++ b/Phân tích/UseCases/4. Báo cáo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9312AFF-1F39-4C67-97EB-A2339C65A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6471C-3A1E-474C-87F9-4469B962D25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4A1FAB-29E9-4CDF-AA87-E1C49E30A895}"/>
   </bookViews>
@@ -409,22 +409,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -454,22 +448,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,50 +491,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFD2F2E-C9F1-402C-AB04-40C29A3E6B45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619124" y="12220575"/>
-          <a:ext cx="7381876" cy="8886825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -562,7 +518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -571,6 +527,50 @@
         <a:xfrm>
           <a:off x="8658225" y="171450"/>
           <a:ext cx="9765424" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3608931</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD650528-55EB-451F-A2DB-8AF7B2ACF7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12058650"/>
+          <a:ext cx="8352381" cy="7714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CC78D9-3A50-4CE9-A19E-A78CD40F6C27}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,134 +896,134 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1032,173 +1032,173 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="21"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="22"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1207,35 +1207,35 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,35 +1244,35 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1281,14 +1281,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>34</v>
@@ -1298,336 +1298,330 @@
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="27">
         <v>44158</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:T11"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A15:A28"/>
     <mergeCell ref="A38:C86"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -1642,6 +1636,12 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D1:T11"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
